--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_24_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_24_9.xlsx
@@ -518,331 +518,331 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_3</t>
+          <t>model_24_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9691698407856408</v>
+        <v>0.9837278163771184</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7644810974476094</v>
+        <v>0.7947261624400677</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9478604790508098</v>
+        <v>0.9838359176501256</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8306013846675891</v>
+        <v>0.9925151174748122</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9182993395907604</v>
+        <v>0.9924727622098588</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2061614166262497</v>
+        <v>0.1088121668127255</v>
       </c>
       <c r="H2" t="n">
-        <v>1.574915985832665</v>
+        <v>1.372667096962379</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1400655611820173</v>
+        <v>0.004665797286615044</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2799987481709447</v>
+        <v>0.01035092491931533</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2100321466790332</v>
+        <v>0.007508352851623215</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6602150293271776</v>
+        <v>0.4733529460389806</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4540500155558302</v>
+        <v>0.3298668925683896</v>
       </c>
       <c r="N2" t="n">
-        <v>1.043524930655566</v>
+        <v>1.022972494526421</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4733798647311481</v>
+        <v>0.3439100091036289</v>
       </c>
       <c r="P2" t="n">
-        <v>85.15819168234452</v>
+        <v>86.43626424697932</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.1321005019408</v>
+        <v>136.4101730665755</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_2</t>
+          <t>model_24_9_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9659804842838383</v>
+        <v>0.9860045054299272</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7644698701814835</v>
+        <v>0.793227704139883</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9522135793175275</v>
+        <v>0.9413570572370897</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8661299490729428</v>
+        <v>0.9788200835349453</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9319955697119666</v>
+        <v>0.976833203563196</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2274886582394392</v>
+        <v>0.09358793663340378</v>
       </c>
       <c r="H3" t="n">
-        <v>1.574991062612946</v>
+        <v>1.38268729451548</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1283715636032214</v>
+        <v>0.016927412104185</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2212736308593955</v>
+        <v>0.02928993533157065</v>
       </c>
       <c r="K3" t="n">
-        <v>0.174822533937131</v>
+        <v>0.02310867371787782</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7017983527414056</v>
+        <v>0.482255093575352</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4769577111646684</v>
+        <v>0.3059214550066794</v>
       </c>
       <c r="N3" t="n">
-        <v>1.048027551599287</v>
+        <v>1.019758345275397</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4972627883675217</v>
+        <v>0.3189451646910276</v>
       </c>
       <c r="P3" t="n">
-        <v>84.9613097914529</v>
+        <v>86.73770757185272</v>
       </c>
       <c r="Q3" t="n">
-        <v>134.9352186110492</v>
+        <v>136.711616391449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_4</t>
+          <t>model_24_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9709959524764215</v>
+        <v>0.9873400447013967</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7635843041817888</v>
+        <v>0.7914021927017105</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9372235958268698</v>
+        <v>0.8755893411044273</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7942604153053388</v>
+        <v>0.9589109229281444</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9010587310753343</v>
+        <v>0.9535164111963346</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1939501993415283</v>
+        <v>0.0846571793754947</v>
       </c>
       <c r="H4" t="n">
-        <v>1.580912846530561</v>
+        <v>1.394894497908246</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1686400664875152</v>
+        <v>0.03591140543189952</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3400666885657439</v>
+        <v>0.05682252865606217</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2543534777234789</v>
+        <v>0.04636696704398084</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6229302966541499</v>
+        <v>0.4918043581809126</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4403977739970177</v>
+        <v>0.2909590682132019</v>
       </c>
       <c r="N4" t="n">
-        <v>1.040946890621523</v>
+        <v>1.017872878068616</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4591464189851409</v>
+        <v>0.3033457981153412</v>
       </c>
       <c r="P4" t="n">
-        <v>85.28030771459629</v>
+        <v>86.93829072306087</v>
       </c>
       <c r="Q4" t="n">
-        <v>135.2542165341925</v>
+        <v>136.9121995426571</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_1</t>
+          <t>model_24_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9610226012114093</v>
+        <v>0.9879010806355214</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7632329350509609</v>
+        <v>0.7893824319879252</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9479411104724521</v>
+        <v>0.7914792275441238</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8999461052150852</v>
+        <v>0.9334918091320782</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9406345122903527</v>
+        <v>0.9237262045878324</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2606420451737251</v>
+        <v>0.08090552950066954</v>
       </c>
       <c r="H5" t="n">
-        <v>1.583262453526314</v>
+        <v>1.408400647101471</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1398489560978961</v>
+        <v>0.06018997139884385</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1653789509107249</v>
+        <v>0.09197489578182616</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1526139539123589</v>
+        <v>0.07608243359033499</v>
       </c>
       <c r="L5" t="n">
-        <v>0.74836680738326</v>
+        <v>0.5018430308840395</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5105311402585793</v>
+        <v>0.2844389732449995</v>
       </c>
       <c r="N5" t="n">
-        <v>1.055026915936834</v>
+        <v>1.017080827338087</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5322655078445395</v>
+        <v>0.2965481292058852</v>
       </c>
       <c r="P5" t="n">
-        <v>84.68921457484289</v>
+        <v>87.02894621486115</v>
       </c>
       <c r="Q5" t="n">
-        <v>134.6631233944391</v>
+        <v>137.0028550344574</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_5</t>
+          <t>model_24_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9717875145795197</v>
+        <v>0.9878353105575118</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7620325744451323</v>
+        <v>0.7872665857776268</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9222321206804494</v>
+        <v>0.6946995142712599</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7578087609726366</v>
+        <v>0.9031660332752922</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8815074667376707</v>
+        <v>0.8887016286770064</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1886570199133023</v>
+        <v>0.08134533431516262</v>
       </c>
       <c r="H6" t="n">
-        <v>1.591289270424642</v>
+        <v>1.422549320452313</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2089125764972612</v>
+        <v>0.08812564469064797</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4003175800024214</v>
+        <v>0.1339127388885494</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3046149321420814</v>
+        <v>0.111019137033048</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5893863283799157</v>
+        <v>0.5140705806343565</v>
       </c>
       <c r="M6" t="n">
-        <v>0.434346658687853</v>
+        <v>0.2852110347009081</v>
       </c>
       <c r="N6" t="n">
-        <v>1.039829391181855</v>
+        <v>1.017173679212924</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4528376951697296</v>
+        <v>0.2973530589163594</v>
       </c>
       <c r="P6" t="n">
-        <v>85.33564924391177</v>
+        <v>87.01810360037329</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.309558063508</v>
+        <v>136.9920124199695</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_24_9_0</t>
+          <t>model_24_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9537998905887606</v>
+        <v>0.9872718088358589</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7603742332855282</v>
+        <v>0.7851216726169578</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9322788235248745</v>
+        <v>0.5907938072231774</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9308739119411258</v>
+        <v>0.8685109850703401</v>
       </c>
       <c r="F7" t="n">
-        <v>0.942393919971321</v>
+        <v>0.8496448614653586</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3089403443649014</v>
+        <v>0.08511347292254348</v>
       </c>
       <c r="H7" t="n">
-        <v>1.602378605394873</v>
+        <v>1.436892364634124</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1819235085826428</v>
+        <v>0.1181182514786557</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1142584199077338</v>
+        <v>0.1818375795039626</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1480909528709183</v>
+        <v>0.1499779154913091</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8016173514982345</v>
+        <v>0.5271100026478837</v>
       </c>
       <c r="M7" t="n">
-        <v>0.555824022838975</v>
+        <v>0.2917421342942145</v>
       </c>
       <c r="N7" t="n">
-        <v>1.065223683874691</v>
+        <v>1.017969211055258</v>
       </c>
       <c r="O7" t="n">
-        <v>0.579486602205575</v>
+        <v>0.3041622009405928</v>
       </c>
       <c r="P7" t="n">
-        <v>84.34921416206139</v>
+        <v>86.92753987444021</v>
       </c>
       <c r="Q7" t="n">
-        <v>134.3231229816576</v>
+        <v>136.9014486940364</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9718085211740933</v>
+        <v>0.9863226615221456</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7600257958340835</v>
+        <v>0.7829903712185249</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9044352521200374</v>
+        <v>0.4845651532267488</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7217911337717525</v>
+        <v>0.8301573644542147</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8606298044651717</v>
+        <v>0.807688490241068</v>
       </c>
       <c r="G8" t="n">
-        <v>0.188516548718662</v>
+        <v>0.09146042537976508</v>
       </c>
       <c r="H8" t="n">
-        <v>1.604708608237091</v>
+        <v>1.451144386899185</v>
       </c>
       <c r="I8" t="n">
-        <v>0.256721385186276</v>
+        <v>0.1487813819211429</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4598510685645666</v>
+        <v>0.2348772158703946</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3582862268754213</v>
+        <v>0.1918290232028614</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5591134495262595</v>
+        <v>0.5402382738958239</v>
       </c>
       <c r="M8" t="n">
-        <v>0.434184924564018</v>
+        <v>0.3024242473409913</v>
       </c>
       <c r="N8" t="n">
-        <v>1.039799734813045</v>
+        <v>1.019309183733441</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4526690756894071</v>
+        <v>0.3152990736547933</v>
       </c>
       <c r="P8" t="n">
-        <v>85.33713896867319</v>
+        <v>86.78369781954129</v>
       </c>
       <c r="Q8" t="n">
-        <v>135.3110477882694</v>
+        <v>136.7576066391375</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9712687948863407</v>
+        <v>0.985084688318426</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7577203383309867</v>
+        <v>0.7808992560599999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8850415016119029</v>
+        <v>0.3797734103114956</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6866279558525178</v>
+        <v>0.7888236836574717</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8391924980671468</v>
+        <v>0.7638736867458836</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1921257008900749</v>
+        <v>0.09973875789338082</v>
       </c>
       <c r="H9" t="n">
-        <v>1.620125213175954</v>
+        <v>1.465127683592942</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3088199948185548</v>
+        <v>0.1790297448761514</v>
       </c>
       <c r="J9" t="n">
-        <v>0.517972239034454</v>
+        <v>0.2920380096605821</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4133962279358798</v>
+        <v>0.2355339006012158</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5412234342330801</v>
+        <v>0.553124876248157</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4383214583956333</v>
+        <v>0.3158144358533676</v>
       </c>
       <c r="N9" t="n">
-        <v>1.040561701336931</v>
+        <v>1.021056910609281</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4569817103300398</v>
+        <v>0.3292593102136528</v>
       </c>
       <c r="P9" t="n">
-        <v>85.2992108580719</v>
+        <v>86.61040186477371</v>
       </c>
       <c r="Q9" t="n">
-        <v>135.2731196776681</v>
+        <v>136.5843106843699</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.970333485271794</v>
+        <v>0.9836413031263669</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7552372285067304</v>
+        <v>0.778865931560174</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8649686984546511</v>
+        <v>0.279193220688073</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6526359828244592</v>
+        <v>0.7453018315301505</v>
       </c>
       <c r="F10" t="n">
-        <v>0.817777003708682</v>
+        <v>0.7191517690928446</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1983801205892535</v>
+        <v>0.1093906813188573</v>
       </c>
       <c r="H10" t="n">
-        <v>1.636729780004426</v>
+        <v>1.478724533885875</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3627427848161164</v>
+        <v>0.2080624338760214</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5741575264822901</v>
+        <v>0.3522248492273324</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4684501556492033</v>
+        <v>0.2801436163165948</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5260532197984226</v>
+        <v>0.5655291763472041</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4453988331700628</v>
+        <v>0.3307426209590432</v>
       </c>
       <c r="N10" t="n">
-        <v>1.04188213843982</v>
+        <v>1.023094630880423</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4643603836008023</v>
+        <v>0.3448230190648803</v>
       </c>
       <c r="P10" t="n">
-        <v>85.23514057558891</v>
+        <v>86.42565914504605</v>
       </c>
       <c r="Q10" t="n">
-        <v>135.2090493951852</v>
+        <v>136.3995679646423</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9691307197907897</v>
+        <v>0.9820629483845031</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7526688518371542</v>
+        <v>0.7769026221712945</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8448895892786579</v>
+        <v>0.1846448543908646</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6200509399851533</v>
+        <v>0.7004096824651959</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7968104395011928</v>
+        <v>0.6743526341033652</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2064230188989552</v>
+        <v>0.1199451467453558</v>
       </c>
       <c r="H11" t="n">
-        <v>1.653904526620169</v>
+        <v>1.491853192809522</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4166825150547419</v>
+        <v>0.2353540240433299</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6280173008741805</v>
+        <v>0.4143066872353915</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5223499952211824</v>
+        <v>0.3248303556393607</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5122365713121022</v>
+        <v>0.5772690480780832</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4543380007207797</v>
+        <v>0.346330978610571</v>
       </c>
       <c r="N11" t="n">
-        <v>1.043580160295356</v>
+        <v>1.025322896398349</v>
       </c>
       <c r="O11" t="n">
-        <v>0.473680110020781</v>
+        <v>0.3610750053739825</v>
       </c>
       <c r="P11" t="n">
-        <v>85.15565545184005</v>
+        <v>86.24144150232459</v>
       </c>
       <c r="Q11" t="n">
-        <v>135.1295642714363</v>
+        <v>136.2153503219208</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9677588410404543</v>
+        <v>0.9804079515375805</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7500847848942237</v>
+        <v>0.7750184939064888</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8252792267654789</v>
+        <v>0.09720363672635457</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5890367239970258</v>
+        <v>0.6549293079871781</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7765938845012966</v>
+        <v>0.6301740966165705</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2155967784193688</v>
+        <v>0.1310121182812874</v>
       </c>
       <c r="H12" t="n">
-        <v>1.671184194166079</v>
+        <v>1.504452367191889</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4693630226694531</v>
+        <v>0.2605941204055311</v>
       </c>
       <c r="J12" t="n">
-        <v>0.679280657632667</v>
+        <v>0.4772019885230362</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5743217470260518</v>
+        <v>0.3688980544642836</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4996584840694701</v>
+        <v>0.5882552158278734</v>
       </c>
       <c r="M12" t="n">
-        <v>0.464324001554269</v>
+        <v>0.3619559617982378</v>
       </c>
       <c r="N12" t="n">
-        <v>1.045516930295829</v>
+        <v>1.02765936253518</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4840912355836234</v>
+        <v>0.3773651764441225</v>
       </c>
       <c r="P12" t="n">
-        <v>85.06869076491037</v>
+        <v>86.06493090819075</v>
       </c>
       <c r="Q12" t="n">
-        <v>135.0425995845066</v>
+        <v>136.038839727787</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9662921949983619</v>
+        <v>0.9787236468746728</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7475362014419289</v>
+        <v>0.7732205261657457</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8064558035030839</v>
+        <v>0.01738629405763203</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5597010837926708</v>
+        <v>0.6095741833497521</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7573280759536649</v>
+        <v>0.5871854731535648</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2254042472561244</v>
+        <v>0.142275071317661</v>
       </c>
       <c r="H13" t="n">
-        <v>1.688226583446723</v>
+        <v>1.516475385753119</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5199295275896512</v>
+        <v>0.2836335687817293</v>
       </c>
       <c r="J13" t="n">
-        <v>0.727769498688979</v>
+        <v>0.5399240804527837</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6238493653647248</v>
+        <v>0.4117788246172566</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4882053576052962</v>
+        <v>0.5984278596149474</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4747675718244923</v>
+        <v>0.3771936787880478</v>
       </c>
       <c r="N13" t="n">
-        <v>1.047587489414077</v>
+        <v>1.030037204412227</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4949794102614208</v>
+        <v>0.3932515945926113</v>
       </c>
       <c r="P13" t="n">
-        <v>84.97971966871823</v>
+        <v>85.89998594645357</v>
       </c>
       <c r="Q13" t="n">
-        <v>134.9536284883145</v>
+        <v>135.8738947660498</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9647862638199817</v>
+        <v>0.9770471663389526</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7450602252230099</v>
+        <v>0.7715138937430476</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7886204795020664</v>
+        <v>-0.05472874495324698</v>
       </c>
       <c r="E14" t="n">
-        <v>0.532103768914738</v>
+        <v>0.5649571957973637</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7391372754402059</v>
+        <v>0.5458226066991658</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2354744159801284</v>
+        <v>0.1534857043795048</v>
       </c>
       <c r="H14" t="n">
-        <v>1.704783447823456</v>
+        <v>1.527887644622021</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5678416414638852</v>
+        <v>0.3044497305692069</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7733850641027663</v>
+        <v>0.6016253946319553</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6706134045109711</v>
+        <v>0.4530379165913357</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4777905658592234</v>
+        <v>0.6077832402645144</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4852570617519424</v>
+        <v>0.3917725161104398</v>
       </c>
       <c r="N14" t="n">
-        <v>1.049713509901202</v>
+        <v>1.032404000462655</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5059154594913201</v>
+        <v>0.4084510832021713</v>
       </c>
       <c r="P14" t="n">
-        <v>84.89230601690829</v>
+        <v>85.74829569473999</v>
       </c>
       <c r="Q14" t="n">
-        <v>134.8662148365045</v>
+        <v>135.7222045143362</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9632817026975291</v>
+        <v>0.9754064336174731</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7426825498670773</v>
+        <v>0.7699015806656369</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7718848998761743</v>
+        <v>-0.1193756993275812</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5062672147944706</v>
+        <v>0.5215682206341501</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7220872460639962</v>
+        <v>0.506392251848607</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2455354231338354</v>
+        <v>0.1644572916429174</v>
       </c>
       <c r="H15" t="n">
-        <v>1.720682973876766</v>
+        <v>1.538669189594686</v>
       </c>
       <c r="I15" t="n">
-        <v>0.612799445243694</v>
+        <v>0.3231102135944024</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8160902703792762</v>
+        <v>0.6616284772092864</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7144448038275538</v>
+        <v>0.4923693454018444</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4683224549421343</v>
+        <v>0.6163322901525938</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4955153106956792</v>
+        <v>0.4055333422086493</v>
       </c>
       <c r="N15" t="n">
-        <v>1.051837596191724</v>
+        <v>1.034720329010626</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5166104233300944</v>
+        <v>0.4227977361562185</v>
       </c>
       <c r="P15" t="n">
-        <v>84.80862810481094</v>
+        <v>85.6102087355124</v>
       </c>
       <c r="Q15" t="n">
-        <v>134.7825369244072</v>
+        <v>135.5841175551086</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9618077754291247</v>
+        <v>0.9738225012841356</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7404204909082162</v>
+        <v>0.7683855419632029</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7562995586768904</v>
+        <v>-0.1769555740670181</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4821823569612693</v>
+        <v>0.479805714377565</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7062012971216781</v>
+        <v>0.4691115307949268</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2553915815644674</v>
+        <v>0.1750490544492835</v>
       </c>
       <c r="H16" t="n">
-        <v>1.735809372550495</v>
+        <v>1.548806947378578</v>
       </c>
       <c r="I16" t="n">
-        <v>0.65466729369244</v>
+        <v>0.3397307688172596</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8559001001700233</v>
+        <v>0.7193822983614102</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7552836408905066</v>
+        <v>0.529556533589335</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4597277667618456</v>
+        <v>0.6241103333403554</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5053628217077978</v>
+        <v>0.4183886404400621</v>
       </c>
       <c r="N16" t="n">
-        <v>1.053918434688295</v>
+        <v>1.036956468775338</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5268771632731569</v>
+        <v>0.4362003110474784</v>
       </c>
       <c r="P16" t="n">
-        <v>84.72991459538979</v>
+        <v>85.48537806639938</v>
       </c>
       <c r="Q16" t="n">
-        <v>134.703823414986</v>
+        <v>135.4592868859956</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9603848424426297</v>
+        <v>0.9723098812471738</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7382844729381228</v>
+        <v>0.7669660106006708</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7418701528035754</v>
+        <v>-0.2279796576087014</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4598158179236552</v>
+        <v>0.4399515971120801</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6914716904865437</v>
+        <v>0.434102558900989</v>
       </c>
       <c r="G17" t="n">
-        <v>0.264906740997163</v>
+        <v>0.1851639516014225</v>
       </c>
       <c r="H17" t="n">
-        <v>1.750092934551967</v>
+        <v>1.55829936013617</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6934298828834393</v>
+        <v>0.3544589807496031</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8928697230867124</v>
+        <v>0.774496987757324</v>
       </c>
       <c r="K17" t="n">
-        <v>0.793149808505538</v>
+        <v>0.5644776721637702</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4519304142059271</v>
+        <v>0.6311605406075329</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5146909179276073</v>
+        <v>0.4303068110097985</v>
       </c>
       <c r="N17" t="n">
-        <v>1.055927281257464</v>
+        <v>1.039091932356931</v>
       </c>
       <c r="O17" t="n">
-        <v>0.536602375860865</v>
+        <v>0.4486258628123827</v>
       </c>
       <c r="P17" t="n">
-        <v>84.65675487139997</v>
+        <v>85.37302724299333</v>
       </c>
       <c r="Q17" t="n">
-        <v>134.6306636909962</v>
+        <v>135.3469360625895</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.959026635613216</v>
+        <v>0.9708778756822005</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7362801090539488</v>
+        <v>0.7656419094394932</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7285712641288804</v>
+        <v>-0.27302279366281</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4391163287362994</v>
+        <v>0.4021925516877791</v>
       </c>
       <c r="F18" t="n">
-        <v>0.677868714380824</v>
+        <v>0.4014106314641135</v>
       </c>
       <c r="G18" t="n">
-        <v>0.27398907631942</v>
+        <v>0.1947397794081776</v>
       </c>
       <c r="H18" t="n">
-        <v>1.763496125074685</v>
+        <v>1.567153630697891</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7291554950756484</v>
+        <v>0.3674607792701065</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9270838815015525</v>
+        <v>0.8267143796665115</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8281196882886004</v>
+        <v>0.5970875794683089</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4448651143076506</v>
+        <v>0.6375325784817999</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5234396587185767</v>
+        <v>0.4412933031535575</v>
       </c>
       <c r="N18" t="n">
-        <v>1.057844749722519</v>
+        <v>1.041113587272188</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5457235686596961</v>
+        <v>0.4600800726718756</v>
       </c>
       <c r="P18" t="n">
-        <v>84.58933408167233</v>
+        <v>85.27218215236523</v>
       </c>
       <c r="Q18" t="n">
-        <v>134.5632429012686</v>
+        <v>135.2460909719615</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9577417452828368</v>
+        <v>0.9695321040790915</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7344090343070919</v>
+        <v>0.7644113021030423</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7163594964488671</v>
+        <v>-0.3126807271967669</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4200165938823419</v>
+        <v>0.3666514324994317</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6653481037777398</v>
+        <v>0.3710359199866772</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2825811438750414</v>
+        <v>0.203738960314876</v>
       </c>
       <c r="H19" t="n">
-        <v>1.776008010522424</v>
+        <v>1.575382707623164</v>
       </c>
       <c r="I19" t="n">
-        <v>0.761960708126844</v>
+        <v>0.3789081274504956</v>
       </c>
       <c r="J19" t="n">
-        <v>0.958653808085727</v>
+        <v>0.8758645774189866</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8603070746515217</v>
+        <v>0.6273860844308531</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4384644215748017</v>
+        <v>0.6432789775629908</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5315836188926831</v>
+        <v>0.4513745233338675</v>
       </c>
       <c r="N19" t="n">
-        <v>1.059658712541877</v>
+        <v>1.043013500123636</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5542142340787358</v>
+        <v>0.4705904712662639</v>
       </c>
       <c r="P19" t="n">
-        <v>84.5275790693676</v>
+        <v>85.18183142166554</v>
       </c>
       <c r="Q19" t="n">
-        <v>134.5014878889639</v>
+        <v>135.1557402412618</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9565349078006051</v>
+        <v>0.9682751031203061</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7326701147230533</v>
+        <v>0.7632712248767299</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7051797708401228</v>
+        <v>-0.3475141280925671</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4024412880406651</v>
+        <v>0.3333834041544612</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6538567283638523</v>
+        <v>0.342934422551338</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2906512716757006</v>
+        <v>0.2121445315142312</v>
       </c>
       <c r="H20" t="n">
-        <v>1.787636173787879</v>
+        <v>1.583006409285087</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7919934838935354</v>
+        <v>0.3889628638633215</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9877040079633022</v>
+        <v>0.9218712932830819</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8898485524606838</v>
+        <v>0.6554170785732016</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4326724054573216</v>
+        <v>0.6484511313189492</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5391208321663156</v>
+        <v>0.4605915017824701</v>
       </c>
       <c r="N20" t="n">
-        <v>1.061362483105028</v>
+        <v>1.044788089712509</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5620723221256092</v>
+        <v>0.4801998355691993</v>
       </c>
       <c r="P20" t="n">
-        <v>84.47126221912478</v>
+        <v>85.10097496834425</v>
       </c>
       <c r="Q20" t="n">
-        <v>134.445171038721</v>
+        <v>135.0748837879405</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9554080437318265</v>
+        <v>0.9671068303796262</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7310601362870811</v>
+        <v>0.7622180667485275</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6949679408040922</v>
+        <v>-0.3780805094290356</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3863073223730523</v>
+        <v>0.302389131480672</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6433343493203696</v>
+        <v>0.3170267399882764</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2981866168923549</v>
+        <v>0.2199567767105593</v>
       </c>
       <c r="H21" t="n">
-        <v>1.798402107002494</v>
+        <v>1.590048882537724</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8194261430099449</v>
+        <v>0.3977859158630809</v>
       </c>
       <c r="J21" t="n">
-        <v>1.014371818565531</v>
+        <v>0.9647336078612433</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9168989807877381</v>
+        <v>0.6812597618621621</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4274328028129028</v>
+        <v>0.6531068738115638</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5460646636547314</v>
+        <v>0.4689954975376196</v>
       </c>
       <c r="N21" t="n">
-        <v>1.062953350025657</v>
+        <v>1.046437415934645</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5693117668961997</v>
+        <v>0.488961606822315</v>
       </c>
       <c r="P21" t="n">
-        <v>84.42007151459052</v>
+        <v>85.02864844285979</v>
       </c>
       <c r="Q21" t="n">
-        <v>134.3939803341868</v>
+        <v>135.002557262456</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9543609244434659</v>
+        <v>0.9660256661044492</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7295743989786689</v>
+        <v>0.7612477922858728</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6856593396920396</v>
+        <v>-0.4048714608081763</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3715271896547681</v>
+        <v>0.2736309658928903</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6337192017222928</v>
+        <v>0.2932151804553149</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3051887083951634</v>
+        <v>0.2271865271969718</v>
       </c>
       <c r="H22" t="n">
-        <v>1.808337239225037</v>
+        <v>1.596537112337199</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8444324034213083</v>
+        <v>0.4055191818502837</v>
       </c>
       <c r="J22" t="n">
-        <v>1.038801880468925</v>
+        <v>1.004503585788706</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9416171419451167</v>
+        <v>0.7050115810427747</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4227847791918732</v>
+        <v>0.6572833759323596</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5524388729942556</v>
+        <v>0.4766408786465675</v>
       </c>
       <c r="N22" t="n">
-        <v>1.064431636079813</v>
+        <v>1.047963765499601</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5759573395237398</v>
+        <v>0.4969324676331914</v>
       </c>
       <c r="P22" t="n">
-        <v>84.37364995530174</v>
+        <v>84.96396778640504</v>
       </c>
       <c r="Q22" t="n">
-        <v>134.347558774898</v>
+        <v>134.9378766060013</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9533919164993901</v>
+        <v>0.9650287144907478</v>
       </c>
       <c r="C23" t="n">
-        <v>0.728207125237204</v>
+        <v>0.7603560153099073</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6771866462109373</v>
+        <v>-0.4283447445506416</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3580148055035809</v>
+        <v>0.2470424659033312</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6249483867821289</v>
+        <v>0.2713889715620352</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3116684689790689</v>
+        <v>0.2338531472283327</v>
       </c>
       <c r="H23" t="n">
-        <v>1.81748020502993</v>
+        <v>1.602500429081736</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8671931144050221</v>
+        <v>0.412294795907607</v>
       </c>
       <c r="J23" t="n">
-        <v>1.061136482435494</v>
+        <v>1.041273109716837</v>
       </c>
       <c r="K23" t="n">
-        <v>0.964164733124671</v>
+        <v>0.7267830305907912</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4186321622572085</v>
+        <v>0.6610379334994957</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5582727550033844</v>
+        <v>0.4835836507041287</v>
       </c>
       <c r="N23" t="n">
-        <v>1.065799647294979</v>
+        <v>1.049371226601297</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5820395819677977</v>
+        <v>0.5041708078707625</v>
       </c>
       <c r="P23" t="n">
-        <v>84.33163051111548</v>
+        <v>84.90612387315988</v>
       </c>
       <c r="Q23" t="n">
-        <v>134.3055393307117</v>
+        <v>134.8800326927561</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.952498352844954</v>
+        <v>0.9641121017465252</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7269520838017314</v>
+        <v>0.7595379847385918</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6694872470825346</v>
+        <v>-0.4489240278582534</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3456822283808231</v>
+        <v>0.2225382078078373</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6169608769115592</v>
+        <v>0.2514232924466232</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3176437332507659</v>
+        <v>0.2399825408695631</v>
       </c>
       <c r="H24" t="n">
-        <v>1.82587267288787</v>
+        <v>1.607970603278807</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8878764778125029</v>
+        <v>0.4182350504880276</v>
       </c>
       <c r="J24" t="n">
-        <v>1.081520982918676</v>
+        <v>1.075160313009132</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9846986411289936</v>
+        <v>0.7466986182074257</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4148564065810453</v>
+        <v>0.6644063478895909</v>
       </c>
       <c r="M24" t="n">
-        <v>0.563598911683447</v>
+        <v>0.4898801290821695</v>
       </c>
       <c r="N24" t="n">
-        <v>1.067061148924771</v>
+        <v>1.050665268122553</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5875924841643949</v>
+        <v>0.5107353403688637</v>
       </c>
       <c r="P24" t="n">
-        <v>84.29364971987306</v>
+        <v>84.85437820932623</v>
       </c>
       <c r="Q24" t="n">
-        <v>134.2675585394693</v>
+        <v>134.8282870289225</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9516767264769667</v>
+        <v>0.9632716997863152</v>
       </c>
       <c r="C25" t="n">
-        <v>0.725802501405876</v>
+        <v>0.7587891441764698</v>
       </c>
       <c r="D25" t="n">
-        <v>0.662497472233907</v>
+        <v>-0.4669622383804213</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3344424391622283</v>
+        <v>0.200013812345929</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6096952490864103</v>
+        <v>0.2332004855000934</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3231379525567387</v>
+        <v>0.2456023126471823</v>
       </c>
       <c r="H25" t="n">
-        <v>1.833559935662296</v>
+        <v>1.612978103565811</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9066535344268712</v>
+        <v>0.4234418189199129</v>
       </c>
       <c r="J25" t="n">
-        <v>1.100099215714358</v>
+        <v>1.106309542872741</v>
       </c>
       <c r="K25" t="n">
-        <v>1.003376769328241</v>
+        <v>0.7648757063128075</v>
       </c>
       <c r="L25" t="n">
-        <v>0.411429626522517</v>
+        <v>0.6674274666123203</v>
       </c>
       <c r="M25" t="n">
-        <v>0.568452242986813</v>
+        <v>0.4955828010001783</v>
       </c>
       <c r="N25" t="n">
-        <v>1.068221092032518</v>
+        <v>1.051851717948731</v>
       </c>
       <c r="O25" t="n">
-        <v>0.592652431829126</v>
+        <v>0.5166807868365803</v>
       </c>
       <c r="P25" t="n">
-        <v>84.25935189848173</v>
+        <v>84.80808333287519</v>
       </c>
       <c r="Q25" t="n">
-        <v>134.233260718078</v>
+        <v>134.7819921524714</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9509230684688088</v>
+        <v>0.9625028586652095</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7247514734490852</v>
+        <v>0.7581047708124556</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6561581538555502</v>
+        <v>-0.4827828438959003</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3242115234687213</v>
+        <v>0.1793583881609333</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6030943503148605</v>
+        <v>0.2165932146387262</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3281776671275666</v>
+        <v>0.2507435567642044</v>
       </c>
       <c r="H26" t="n">
-        <v>1.840588164448894</v>
+        <v>1.617554511402223</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9236832303276312</v>
+        <v>0.4280084708763293</v>
       </c>
       <c r="J26" t="n">
-        <v>1.117009882789193</v>
+        <v>1.134874152163003</v>
       </c>
       <c r="K26" t="n">
-        <v>1.020346043897811</v>
+        <v>0.7814413115196663</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4083209010811694</v>
+        <v>0.6701388860392353</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5728679316627582</v>
+        <v>0.500743004708208</v>
       </c>
       <c r="N26" t="n">
-        <v>1.069285079808741</v>
+        <v>1.05293714070794</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5972561055137419</v>
+        <v>0.522060671099555</v>
       </c>
       <c r="P26" t="n">
-        <v>84.22840029835068</v>
+        <v>84.7666490966517</v>
       </c>
       <c r="Q26" t="n">
-        <v>134.2023091179469</v>
+        <v>134.7405579162479</v>
       </c>
     </row>
   </sheetData>
